--- a/docs/porcentajes-SO.xlsx
+++ b/docs/porcentajes-SO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\aai-app\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830AAA9-704A-4DBD-8A24-19967CC76913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B514C-E824-4B46-B46D-992C6E644462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CE317F9-0D10-439A-A5E5-FEBF102FF5A4}"/>
+    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" xr2:uid="{1CE317F9-0D10-439A-A5E5-FEBF102FF5A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Android</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Columna2</t>
-  </si>
-  <si>
-    <t>Otros</t>
   </si>
 </sst>
 </file>
@@ -185,6 +182,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Columna2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -207,6 +215,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8F7C-442E-A811-D2C79C281F72}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -230,29 +243,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8F7C-442E-A811-D2C79C281F72}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -309,35 +304,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:f>Hoja1!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Android</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>iOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Otros</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$4</c:f>
+              <c:f>Hoja1!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>83.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,8 +1031,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD1C891D-E8C7-4EA0-A33A-CE4E8D9D4E3F}" name="Tabla1" displayName="Tabla1" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{FD1C891D-E8C7-4EA0-A33A-CE4E8D9D4E3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD1C891D-E8C7-4EA0-A33A-CE4E8D9D4E3F}" name="Tabla1" displayName="Tabla1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{FD1C891D-E8C7-4EA0-A33A-CE4E8D9D4E3F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CE25F0F2-283F-44CE-803B-F9AD6B827588}" name="Columna1"/>
     <tableColumn id="2" xr3:uid="{2CE5EC35-2C7F-4C0A-9292-86053DC282D3}" name="Columna2"/>
@@ -1349,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22512C7-7E9E-499F-9CC7-04BD4D2D7988}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,14 +1373,6 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
